--- a/Data/EC/NIT-8060087427.xlsx
+++ b/Data/EC/NIT-8060087427.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{76B66750-AFAC-491F-BA76-C319721E9A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6E225C7-1F61-4E4D-95BD-07218DFAA4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3A0C4C60-9D13-40E7-B189-CDDB564994DC}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{DEB1292B-952D-4F14-B8F8-A3E283F5528E}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -71,28 +71,28 @@
     <t>LUIS ENRIQUE MARRUGO ALCAZAR</t>
   </si>
   <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -506,7 +506,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0B10553-9B64-6341-6037-0F645736B623}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0098FF9-0E31-2470-F587-F620DEA869CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -857,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE5EC13-BFFD-43DA-AEE6-F7A5C2C06181}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{450DF7B9-779B-480C-B554-5EF707BD9A53}">
   <dimension ref="B2:J29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1035,7 +1035,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>35112</v>
+        <v>26919</v>
       </c>
       <c r="G16" s="18">
         <v>877803</v>
@@ -1196,7 +1196,7 @@
         <v>18</v>
       </c>
       <c r="F23" s="24">
-        <v>26919</v>
+        <v>35112</v>
       </c>
       <c r="G23" s="24">
         <v>877803</v>
